--- a/outlines/COMP 1600.xlsx
+++ b/outlines/COMP 1600.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{813758F3-6988-4B39-885A-3DFCE6F82844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C26FAA-6C71-473E-80E6-122BC1440C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1580,20 +1580,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1815,10 +1815,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2040,13 +2040,13 @@
       <c r="B17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="82" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="87" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="83" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="9"/>
@@ -2214,7 +2214,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="84" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="88"/>
@@ -2223,188 +2223,175 @@
       <c r="E31" s="88"/>
       <c r="F31" s="88"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="20" t="s">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="87" t="b">
+      <c r="D33" s="87" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22" t="s">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>50</v>
-      </c>
       <c r="D34" s="88"/>
-      <c r="E34" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="E34" s="23"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="28.5" customHeight="1">
+    <row r="35" spans="1:6" ht="30.75" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D35" s="88"/>
       <c r="E35" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" ht="32.25" customHeight="1">
+    <row r="36" spans="1:6" ht="28.5" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D36" s="88"/>
       <c r="E36" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="33.75" customHeight="1">
+    <row r="37" spans="1:6" ht="32.25" customHeight="1">
       <c r="A37" s="21"/>
-      <c r="B37" s="53" t="s">
-        <v>58</v>
+      <c r="B37" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D37" s="88"/>
       <c r="E37" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="33" customHeight="1">
+    <row r="38" spans="1:6" ht="33.75" customHeight="1">
       <c r="A38" s="21"/>
       <c r="B38" s="53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D38" s="88"/>
       <c r="E38" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="60">
+    <row r="39" spans="1:6" ht="33" customHeight="1">
+      <c r="A39" s="21"/>
       <c r="B39" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D39" s="88"/>
       <c r="E39" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="30">
-      <c r="A40" s="21"/>
-      <c r="B40" s="18" t="s">
-        <v>67</v>
+    <row r="40" spans="1:6" ht="60">
+      <c r="B40" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D40" s="88"/>
       <c r="E40" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="21"/>
+      <c r="B41" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="88"/>
+      <c r="E41" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A41" s="82" t="s">
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A42" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="28.5">
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" ht="28.5">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D44" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E44" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="26">
-        <v>13</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>76</v>
-      </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="21"/>
       <c r="B45" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" s="26">
         <v>13</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="26" t="s">
         <v>76</v>
       </c>
       <c r="E45" s="27" t="s">
@@ -2412,141 +2399,139 @@
       </c>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1">
+    <row r="46" spans="1:6">
       <c r="A46" s="21"/>
-      <c r="B46" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="30">
+      <c r="B46" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="26">
         <v>13</v>
       </c>
-      <c r="D46" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>79</v>
+      <c r="D46" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="21"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="10"/>
+      <c r="B47" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="30">
+        <v>13</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>79</v>
+      </c>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:6" ht="15" customHeight="1">
+      <c r="A48" s="21"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A49" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" ht="57" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" ht="57" customHeight="1">
+      <c r="A50" s="21"/>
+      <c r="B50" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="9" t="b">
+      <c r="D50" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E50" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="10"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A51" s="82" t="s">
+    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="A51" s="21"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A52" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="20" t="s">
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B53" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D53" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E53" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="9" t="b">
+      <c r="F53" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A53" s="33" t="s">
+    <row r="54" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A54" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B54" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C54" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D54" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E54" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="F53" s="36"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
-      <c r="A54" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="75">
-        <v>0.15</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>97</v>
       </c>
       <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="56" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="C55" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D55" s="75">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E55" s="38" t="s">
         <v>97</v>
@@ -2555,13 +2540,13 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>99</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D56" s="75">
         <v>0.2</v>
@@ -2573,9 +2558,9 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="37" t="s">
         <v>101</v>
       </c>
       <c r="C57" s="38" t="s">
@@ -2591,28 +2576,38 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="36"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="A59" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B59" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C59" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="75">
+      <c r="D59" s="75">
         <v>0.25</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E59" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F58" s="36"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
-      <c r="A59" s="26"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
       <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
@@ -2647,52 +2642,51 @@
       <c r="E63" s="38"/>
       <c r="F63" s="36"/>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A64" s="39"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="40"/>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
+      <c r="A64" s="26"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
       <c r="F64" s="36"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A65" s="39"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="36"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A66" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A66" s="41" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A67" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="84" t="s">
+      <c r="B67" s="42"/>
+      <c r="C67" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="87" t="b">
+      <c r="D67" s="87" t="b">
         <v>1</v>
       </c>
-      <c r="E66" s="85" t="s">
+      <c r="E67" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="36"/>
-    </row>
-    <row r="67" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A67" s="4" t="s">
+      <c r="F67" s="36"/>
+    </row>
+    <row r="68" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A68" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="36"/>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1">
-      <c r="A68" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="C68" s="88"/>
       <c r="D68" s="88"/>
@@ -2700,36 +2694,37 @@
       <c r="F68" s="36"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1">
-      <c r="A69" s="45"/>
-      <c r="B69" s="46"/>
+      <c r="A69" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="C69" s="88"/>
       <c r="D69" s="88"/>
       <c r="E69" s="88"/>
       <c r="F69" s="36"/>
     </row>
-    <row r="70" spans="1:6" ht="18" customHeight="1">
-      <c r="A70" s="47" t="s">
+    <row r="70" spans="1:6" ht="15" customHeight="1">
+      <c r="A70" s="45"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="36"/>
+    </row>
+    <row r="71" spans="1:6" ht="18" customHeight="1">
+      <c r="A71" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="84" t="s">
+      <c r="B71" s="44"/>
+      <c r="C71" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="87" t="b">
+      <c r="D71" s="87" t="b">
         <v>1</v>
       </c>
-      <c r="E70" s="83"/>
-      <c r="F70" s="36"/>
-    </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1">
-      <c r="A71" s="43"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
+      <c r="E71" s="85"/>
       <c r="F71" s="36"/>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1">
+    <row r="72" spans="1:6" ht="18" customHeight="1">
       <c r="A72" s="43"/>
       <c r="B72" s="44"/>
       <c r="C72" s="88"/>
@@ -2738,383 +2733,391 @@
       <c r="F72" s="36"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="88"/>
       <c r="D73" s="88"/>
       <c r="E73" s="88"/>
       <c r="F73" s="36"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="45"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="36"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1">
+      <c r="A75" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="84" t="s">
+      <c r="B75" s="48"/>
+      <c r="C75" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="87" t="b">
+      <c r="D75" s="87" t="b">
         <v>1</v>
       </c>
-      <c r="E74" s="83"/>
-      <c r="F74" s="36"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1">
-      <c r="A75" s="43" t="s">
+      <c r="E75" s="85"/>
+      <c r="F75" s="36"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1">
+      <c r="A76" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="36"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1">
-      <c r="A76" s="45"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="88"/>
       <c r="D76" s="88"/>
       <c r="E76" s="88"/>
       <c r="F76" s="36"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A77" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="9" t="b">
-        <v>1</v>
-      </c>
+    <row r="77" spans="1:6" ht="15" customHeight="1">
+      <c r="A77" s="45"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
       <c r="E77" s="88"/>
-      <c r="F77" s="9"/>
+      <c r="F77" s="36"/>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
       <c r="A78" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="88"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A79" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A79" s="39"/>
-      <c r="B79" s="36"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="36"/>
-    </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A80" s="39"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
       <c r="E80" s="40"/>
       <c r="F80" s="36"/>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="6"/>
-      <c r="B81" s="20" t="s">
+    <row r="81" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="36"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="6"/>
+      <c r="B82" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D82" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E82" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F81" s="20" t="s">
+      <c r="F82" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A82" s="33" t="s">
+    <row r="83" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A83" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B83" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C83" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D83" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="33" t="s">
+      <c r="E83" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F82" s="33" t="s">
+      <c r="F83" s="33" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1">
-      <c r="A83" s="59">
-        <v>1</v>
-      </c>
-      <c r="B83" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="D83" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="E83" s="52"/>
-      <c r="F83" s="51"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1">
       <c r="A84" s="59">
-        <v>2</v>
-      </c>
-      <c r="B84" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="60"/>
+        <v>1</v>
+      </c>
+      <c r="B84" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="D84" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="F84" s="69" t="s">
-        <v>137</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E84" s="52"/>
+      <c r="F84" s="51"/>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1">
       <c r="A85" s="59">
-        <v>3</v>
-      </c>
-      <c r="B85" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" s="52"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="78"/>
+        <v>2</v>
+      </c>
+      <c r="B85" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="60"/>
+      <c r="D85" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="69" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1">
       <c r="A86" s="59">
-        <v>4</v>
-      </c>
-      <c r="B86" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" s="69"/>
+        <v>3</v>
+      </c>
+      <c r="B86" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="62" t="s">
+        <v>139</v>
+      </c>
       <c r="D86" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="F86" s="51" t="s">
-        <v>142</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E86" s="52"/>
+      <c r="F86" s="51"/>
       <c r="G86" s="78"/>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1">
       <c r="A87" s="59">
-        <v>5</v>
-      </c>
-      <c r="B87" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="71" t="s">
-        <v>144</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B87" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="69"/>
       <c r="D87" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E87" s="61"/>
-      <c r="F87" s="51"/>
+        <v>135</v>
+      </c>
+      <c r="E87" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F87" s="51" t="s">
+        <v>142</v>
+      </c>
       <c r="G87" s="78"/>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1">
       <c r="A88" s="59">
-        <v>6</v>
-      </c>
-      <c r="B88" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="61"/>
+        <v>5</v>
+      </c>
+      <c r="B88" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="71" t="s">
+        <v>144</v>
+      </c>
       <c r="D88" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="E88" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="F88" s="51" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E88" s="61"/>
+      <c r="F88" s="51"/>
       <c r="G88" s="78"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1">
       <c r="A89" s="59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="C89" s="65" t="s">
-        <v>150</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C89" s="61"/>
       <c r="D89" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
+        <v>146</v>
+      </c>
+      <c r="E89" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F89" s="51" t="s">
+        <v>148</v>
+      </c>
       <c r="G89" s="78"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1">
       <c r="A90" s="59">
-        <v>8</v>
-      </c>
-      <c r="B90" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C90" s="63" t="s">
-        <v>152</v>
+        <v>7</v>
+      </c>
+      <c r="B90" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="65" t="s">
+        <v>150</v>
       </c>
       <c r="D90" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="E90" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" s="51" t="s">
-        <v>155</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
       <c r="G90" s="78"/>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1">
       <c r="A91" s="59">
-        <v>9</v>
-      </c>
-      <c r="B91" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" s="73" t="s">
-        <v>157</v>
+        <v>8</v>
+      </c>
+      <c r="B91" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="63" t="s">
+        <v>152</v>
       </c>
       <c r="D91" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
+        <v>153</v>
+      </c>
+      <c r="E91" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="F91" s="51" t="s">
+        <v>155</v>
+      </c>
       <c r="G91" s="78"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1">
       <c r="A92" s="59">
-        <v>10</v>
-      </c>
-      <c r="B92" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" s="65" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="B92" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="73" t="s">
+        <v>157</v>
       </c>
       <c r="D92" s="77" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E92" s="61"/>
-      <c r="F92" s="51"/>
+      <c r="F92" s="61"/>
       <c r="G92" s="78"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1">
       <c r="A93" s="59">
-        <v>11</v>
-      </c>
-      <c r="B93" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="C93" s="63" t="s">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="65" t="s">
+        <v>152</v>
       </c>
       <c r="D93" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="E93" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="F93" s="51" t="s">
-        <v>163</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E93" s="61"/>
+      <c r="F93" s="51"/>
       <c r="G93" s="78"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1">
       <c r="A94" s="59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="C94" s="65" t="s">
+      <c r="C94" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="F94" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="G94" s="78"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1">
+      <c r="A95" s="59">
+        <v>12</v>
+      </c>
+      <c r="B95" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="77" t="s">
+      <c r="D95" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="61"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="78"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1">
-      <c r="A95" s="26">
+      <c r="E95" s="61"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="78"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1">
+      <c r="A96" s="26">
         <v>13</v>
       </c>
-      <c r="B95" s="72" t="s">
+      <c r="B96" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="68"/>
-      <c r="D95" s="76" t="s">
+      <c r="C96" s="68"/>
+      <c r="D96" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="E95" s="80"/>
-      <c r="F95" s="68"/>
-    </row>
-    <row r="96" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A96" s="39"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="36"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="68"/>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A97" s="39"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
     <mergeCell ref="C17:C29"/>
     <mergeCell ref="D17:D29"/>
     <mergeCell ref="E17:E29"/>
     <mergeCell ref="A31:F31"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D33:D41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
